--- a/biology/Zoologie/Eupograpta_kottae/Eupograpta_kottae.xlsx
+++ b/biology/Zoologie/Eupograpta_kottae/Eupograpta_kottae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eupograpta kottae est une espèce d'araignées aranéomorphes de la famille des Miturgidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eupograpta kottae est une espèce d'araignées aranéomorphes de la famille des Miturgidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Australie-Occidentale[1]. Elle se rencontre vers Perth et Boorabbin[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Australie-Occidentale. Elle se rencontre vers Perth et Boorabbin.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace de mâle holotype mesure 3,00 mm sur 2,31 mm et son abdomen 3,56 mm sur 2,19 mm. La carapace de la femelle paratype mesure 3,45 mm sur 2,60 mm et son abdomen 4,70 mm sur 2,85 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace de mâle holotype mesure 3,00 mm sur 2,31 mm et son abdomen 3,56 mm sur 2,19 mm. La carapace de la femelle paratype mesure 3,45 mm sur 2,60 mm et son abdomen 4,70 mm sur 2,85 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Patricia Kott[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Patricia Kott.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Raven, 2009 : Revisions of Australian ground-hunting spiders: IV. The spider subfamily Diaprograptinae subfam. nov. (Araneomorphae: Miturgidae). Zootaxa, no 2035, p. 1-40.</t>
         </is>
